--- a/paquetes y clases  (Autoguardado).xlsx
+++ b/paquetes y clases  (Autoguardado).xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="javadoc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="73">
   <si>
     <t>Package</t>
   </si>
@@ -508,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,27 +694,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,48 +701,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,24 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -810,8 +728,104 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,599 +1107,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:I52"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="4:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D3" s="133" t="s">
+    <row r="4" spans="2:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B4" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-    </row>
-    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="7" t="s">
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="2"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="129" t="s">
+      <c r="G6" s="102" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="97" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="124" t="s">
+      <c r="C7" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="130" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="103" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="98"/>
-      <c r="E7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="54" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="107"/>
+      <c r="C8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="131" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="104" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="98"/>
-      <c r="E8" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="125" t="s">
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="107"/>
+      <c r="C9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="25" t="s">
+      <c r="E9" s="116"/>
+      <c r="F9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="132" t="s">
+      <c r="G9" s="105" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="98"/>
-      <c r="E9" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="25" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="107"/>
+      <c r="C10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="137"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="98"/>
-      <c r="E10" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="54" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="107"/>
+      <c r="C11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="98"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="54" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="107"/>
+      <c r="C12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="98"/>
-      <c r="E12" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="107"/>
+      <c r="C13" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="98"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="107"/>
+      <c r="C14" s="18" t="str">
+        <f>+C13</f>
+        <v>+</v>
+      </c>
+      <c r="D14" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="98"/>
-      <c r="E14" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="54" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="107"/>
+      <c r="C15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="98"/>
-      <c r="E15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="54" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="107"/>
+      <c r="C16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="98"/>
-      <c r="E16" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="125" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="107"/>
+      <c r="C17" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="96"/>
-      <c r="H16" s="25" t="s">
+      <c r="E17" s="116"/>
+      <c r="F17" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="98"/>
-      <c r="E17" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="125"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="25" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="107"/>
+      <c r="C18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="98"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="98"/>
-      <c r="E18" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="54" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="107"/>
+      <c r="C19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="99"/>
-      <c r="E19" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="108"/>
+      <c r="C20" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="44" t="s">
+      <c r="C21" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="126" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="128" t="s">
+      <c r="C22" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="F22" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="97" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="49" t="s">
+      <c r="C23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="98"/>
-      <c r="E23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="54" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="91"/>
+      <c r="C24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="99"/>
-      <c r="E24" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="57" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="92"/>
+      <c r="C25" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="44" t="s">
+      <c r="C26" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="27"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="44" t="s">
+      <c r="C27" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="97" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="49" t="s">
+      <c r="C28" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="98"/>
-      <c r="E28" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="54" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="91"/>
+      <c r="C29" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="99"/>
-      <c r="E29" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="57" t="s">
+    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="92"/>
+      <c r="C30" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
-    </row>
-    <row r="30" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="44" t="s">
+      <c r="C31" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="5" t="s">
+      <c r="E31" s="27"/>
+      <c r="F31" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="7" t="s">
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="44" t="s">
+      <c r="C32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="97" t="s">
+      <c r="E32" s="27"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="49" t="s">
+      <c r="C33" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="99"/>
-      <c r="E33" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="57" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="92"/>
+      <c r="C34" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="44" t="s">
+      <c r="C35" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="100" t="s">
+      <c r="E35" s="27"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="31" t="s">
+      <c r="C36" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="101"/>
-      <c r="E36" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="21" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="118"/>
+      <c r="C37" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="102"/>
-      <c r="E37" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="33" t="s">
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="119"/>
+      <c r="C38" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="97" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="114" t="s">
+      <c r="C39" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="90"/>
-      <c r="H38" s="12" t="s">
+      <c r="E39" s="110"/>
+      <c r="F39" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="99"/>
-      <c r="E39" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="115"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="8" t="s">
+    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="92"/>
+      <c r="C40" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="94"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="92" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="35" t="s">
+      <c r="C41" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="93"/>
-      <c r="E41" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="113"/>
+      <c r="C42" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="93"/>
-      <c r="E42" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="23" t="s">
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="113"/>
+      <c r="C43" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="93"/>
-      <c r="E43" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="23" t="s">
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="113"/>
+      <c r="C44" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="93"/>
-      <c r="E44" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="23" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="113"/>
+      <c r="C45" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="93"/>
-      <c r="E45" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="23" t="s">
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="113"/>
+      <c r="C46" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="94"/>
-      <c r="E46" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="37" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="114"/>
+      <c r="C47" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E47" s="16"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="95"/>
+      <c r="D49" s="115"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="95"/>
+      <c r="D50" s="115"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="95"/>
+      <c r="D51" s="115"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D6:D19"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="D40:D46"/>
+  <mergeCells count="9">
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="D49:D51"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B7:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1693,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:J52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E5" sqref="E4:I7"/>
     </sheetView>
   </sheetViews>
@@ -1706,18 +1722,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
     </row>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
     </row>
     <row r="3" spans="4:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="7" t="s">
@@ -1740,11 +1756,11 @@
       </c>
     </row>
     <row r="4" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="128" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="48"/>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="136" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="50"/>
@@ -1754,9 +1770,9 @@
       </c>
     </row>
     <row r="5" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="104"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="52"/>
-      <c r="F5" s="112"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="89"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53" t="s">
@@ -1764,9 +1780,9 @@
       </c>
     </row>
     <row r="6" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="104"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="112"/>
+      <c r="F6" s="137"/>
       <c r="G6" s="89"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53" t="s">
@@ -1774,9 +1790,9 @@
       </c>
     </row>
     <row r="7" spans="4:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="104"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="52"/>
-      <c r="F7" s="113"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="89"/>
       <c r="H7" s="53"/>
       <c r="I7" s="53" t="s">
@@ -1784,7 +1800,7 @@
       </c>
     </row>
     <row r="8" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="104"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="60" t="s">
         <v>63</v>
       </c>
@@ -1796,33 +1812,33 @@
       <c r="I8" s="85"/>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="104"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="119"/>
+      <c r="G9" s="125"/>
       <c r="H9" s="64" t="s">
         <v>49</v>
       </c>
       <c r="I9" s="64"/>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="104"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="125"/>
       <c r="H10" s="64" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="64"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="104"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="63" t="s">
         <v>63</v>
       </c>
@@ -1834,7 +1850,7 @@
       <c r="I11" s="64"/>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="104"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="63" t="s">
         <v>63</v>
       </c>
@@ -1849,7 +1865,7 @@
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="104"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="63" t="s">
         <v>63</v>
       </c>
@@ -1861,7 +1877,7 @@
       <c r="I13" s="64"/>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="104"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="63" t="s">
         <v>63</v>
       </c>
@@ -1873,33 +1889,33 @@
       <c r="I14" s="53"/>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="104"/>
+      <c r="D15" s="129"/>
       <c r="E15" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="120" t="s">
+      <c r="F15" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="121"/>
+      <c r="G15" s="127"/>
       <c r="H15" s="88" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="88"/>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="104"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
       <c r="H16" s="88" t="s">
         <v>47</v>
       </c>
       <c r="I16" s="88"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="104"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="63" t="s">
         <v>63</v>
       </c>
@@ -1913,7 +1929,7 @@
       <c r="I17" s="53"/>
     </row>
     <row r="18" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="105"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="67" t="s">
         <v>63</v>
       </c>
@@ -1957,7 +1973,7 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="133" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="48" t="s">
@@ -1971,7 +1987,7 @@
       <c r="I21" s="51"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="109"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="52" t="s">
         <v>63</v>
       </c>
@@ -1983,7 +1999,7 @@
       <c r="I22" s="53"/>
     </row>
     <row r="23" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="110"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="56" t="s">
         <v>63</v>
       </c>
@@ -2023,7 +2039,7 @@
       <c r="I25" s="46"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="108" t="s">
+      <c r="D26" s="133" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="48" t="s">
@@ -2037,7 +2053,7 @@
       <c r="I26" s="51"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="109"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="52" t="s">
         <v>63</v>
       </c>
@@ -2051,7 +2067,7 @@
       <c r="I27" s="53"/>
     </row>
     <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="110"/>
+      <c r="D28" s="135"/>
       <c r="E28" s="56"/>
       <c r="F28" s="57" t="s">
         <v>66</v>
@@ -2091,7 +2107,7 @@
       <c r="I30" s="46"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="97" t="s">
+      <c r="D31" s="106" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="77" t="s">
@@ -2105,7 +2121,7 @@
       <c r="I31" s="80"/>
     </row>
     <row r="32" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="99"/>
+      <c r="D32" s="108"/>
       <c r="E32" s="81" t="s">
         <v>63</v>
       </c>
@@ -2145,7 +2161,7 @@
       <c r="I34" s="41"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="103" t="s">
+      <c r="D35" s="128" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="48" t="s">
@@ -2159,7 +2175,7 @@
       <c r="I35" s="51"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="104"/>
+      <c r="D36" s="129"/>
       <c r="E36" s="72" t="s">
         <v>63</v>
       </c>
@@ -2171,7 +2187,7 @@
       <c r="I36" s="73"/>
     </row>
     <row r="37" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="105"/>
+      <c r="D37" s="130"/>
       <c r="E37" s="81" t="s">
         <v>63</v>
       </c>
@@ -2183,35 +2199,35 @@
       <c r="I37" s="84"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D38" s="103" t="s">
+      <c r="D38" s="128" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="116"/>
+      <c r="G38" s="122"/>
       <c r="H38" s="51" t="s">
         <v>51</v>
       </c>
       <c r="I38" s="51"/>
     </row>
     <row r="39" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="105"/>
+      <c r="D39" s="130"/>
       <c r="E39" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="115"/>
-      <c r="G39" s="117"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="123"/>
       <c r="H39" s="59" t="s">
         <v>54</v>
       </c>
       <c r="I39" s="59"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D40" s="103" t="s">
+      <c r="D40" s="128" t="s">
         <v>55</v>
       </c>
       <c r="E40" s="60" t="s">
@@ -2225,7 +2241,7 @@
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="104"/>
+      <c r="D41" s="129"/>
       <c r="E41" s="63" t="s">
         <v>63</v>
       </c>
@@ -2237,7 +2253,7 @@
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="104"/>
+      <c r="D42" s="129"/>
       <c r="E42" s="63" t="s">
         <v>63</v>
       </c>
@@ -2249,7 +2265,7 @@
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="104"/>
+      <c r="D43" s="129"/>
       <c r="E43" s="63" t="s">
         <v>63</v>
       </c>
@@ -2261,7 +2277,7 @@
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="104"/>
+      <c r="D44" s="129"/>
       <c r="E44" s="63" t="s">
         <v>63</v>
       </c>
@@ -2273,7 +2289,7 @@
       <c r="I44" s="14"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="104"/>
+      <c r="D45" s="129"/>
       <c r="E45" s="63" t="s">
         <v>63</v>
       </c>
@@ -2285,7 +2301,7 @@
       <c r="I45" s="14"/>
     </row>
     <row r="46" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="105"/>
+      <c r="D46" s="130"/>
       <c r="E46" s="67" t="s">
         <v>63</v>
       </c>
@@ -2303,15 +2319,15 @@
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="95"/>
+      <c r="D49" s="115"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="95"/>
+      <c r="D50" s="115"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="95"/>
+      <c r="D51" s="115"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="4:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2323,11 +2339,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="D40:D46"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="D2:F2"/>
@@ -2340,6 +2351,11 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="D21:D23"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
